--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2777559.863248094</v>
+        <v>2773257.701351629</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663196</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.709404802355</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.9311922907013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>90.06435309531078</v>
       </c>
       <c r="V3" t="n">
-        <v>92.17004214377457</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.2768797846272</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>8.916409259873012</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.2299344537571</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>225.1819480596201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537571</v>
+        <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>288.1874442843756</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908711</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2299344537557</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>107.6431636299388</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419585</v>
+        <v>38.47015094419594</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611857</v>
+        <v>8.321493021612014</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>180.9868362940396</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057046</v>
+        <v>5.686931024057202</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>52.26854432992349</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>4.375936149388462</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>112.9999173122357</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>245.0309973142601</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>48.77079739638484</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>81.69725953208329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.66004604094911</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>50.06209150957563</v>
+        <v>167.2468210986316</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756203</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>59.96838802184498</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>255.2269336503894</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>68.62151774815467</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>19.91555826189057</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>78.91051008678501</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>4.019807611472022</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188276</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>112.7304175246777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.3673327389935</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="C2" t="n">
-        <v>211.3673327389935</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="D2" t="n">
-        <v>211.3673327389935</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389935</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897901</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201457</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201457</v>
+        <v>596.4915365985761</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036612</v>
+        <v>407.0717515820913</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871767</v>
+        <v>217.6519665656066</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.3673327389935</v>
+        <v>217.6519665656066</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.6029025937793</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
-        <v>461.6029025937793</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>312.668492932528</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>312.668492932528</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843266</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843266</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843266</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843266</v>
+        <v>659.1282546296121</v>
       </c>
       <c r="V3" t="n">
-        <v>629.8182396138473</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="W3" t="n">
-        <v>629.8182396138473</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="X3" t="n">
-        <v>629.8182396138473</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="Y3" t="n">
-        <v>629.8182396138473</v>
+        <v>469.7084696131274</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818525</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818525</v>
+        <v>628.6105509030299</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818525</v>
+        <v>478.4939114906941</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818525</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818525</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428067</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394156</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>401.713813934072</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287285</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652786</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575105</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575105</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575105</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U4" t="n">
-        <v>426.518553941026</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V4" t="n">
-        <v>237.0987689245415</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246697</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818525</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818525</v>
+        <v>750.1023486652796</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1065.856850471458</v>
+        <v>691.4047187165265</v>
       </c>
       <c r="C5" t="n">
-        <v>1065.856850471458</v>
+        <v>338.6472091672783</v>
       </c>
       <c r="D5" t="n">
-        <v>1065.856850471458</v>
+        <v>338.6472091672783</v>
       </c>
       <c r="E5" t="n">
-        <v>713.0993409222081</v>
+        <v>338.6472091672783</v>
       </c>
       <c r="F5" t="n">
-        <v>485.6428277306725</v>
+        <v>331.7017084180748</v>
       </c>
       <c r="G5" t="n">
-        <v>132.8853181814229</v>
+        <v>319.0368233263769</v>
       </c>
       <c r="H5" t="n">
-        <v>132.8853181814229</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630057</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874671</v>
+        <v>80.9902034087462</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620547</v>
+        <v>211.2396305620536</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458689</v>
+        <v>409.727324245867</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973863</v>
+        <v>662.2525653973835</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365791</v>
+        <v>923.477737336576</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477538</v>
+        <v>1156.809998477534</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169741</v>
+        <v>1321.452684169736</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="V5" t="n">
-        <v>1065.856850471458</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="W5" t="n">
-        <v>1065.856850471458</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="X5" t="n">
-        <v>1065.856850471458</v>
+        <v>1044.162228265775</v>
       </c>
       <c r="Y5" t="n">
-        <v>1065.856850471458</v>
+        <v>691.4047187165265</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390.1845720261495</v>
+        <v>804.6870533177894</v>
       </c>
       <c r="C6" t="n">
-        <v>215.7315427450224</v>
+        <v>630.2340240366624</v>
       </c>
       <c r="D6" t="n">
-        <v>66.79713308377113</v>
+        <v>481.2996143754111</v>
       </c>
       <c r="E6" t="n">
-        <v>66.79713308377113</v>
+        <v>322.0621593699556</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377113</v>
+        <v>175.5276013968406</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377113</v>
+        <v>66.79713308377112</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377113</v>
+        <v>66.79713308377112</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630057</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143115</v>
+        <v>40.71784159143079</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379379</v>
+        <v>332.4282120100549</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824509</v>
+        <v>513.2089724545673</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158634</v>
+        <v>743.5284611879791</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947686</v>
+        <v>994.3524663668836</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887853</v>
+        <v>1201.587633459967</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411837</v>
+        <v>1348.579058983951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815028</v>
+        <v>1396.919737815023</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.51418930835</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880433</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="T6" t="n">
-        <v>1242.848713880433</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="U6" t="n">
-        <v>1242.848713880433</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="V6" t="n">
-        <v>1060.033727724838</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="W6" t="n">
-        <v>805.7963709966361</v>
+        <v>1388.514189308344</v>
       </c>
       <c r="X6" t="n">
-        <v>597.9448707911033</v>
+        <v>1180.662689102811</v>
       </c>
       <c r="Y6" t="n">
-        <v>390.1845720261495</v>
+        <v>972.9023903378575</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.68276952807536</v>
+        <v>668.0608113441465</v>
       </c>
       <c r="C7" t="n">
-        <v>33.68276952807536</v>
+        <v>499.1246284162396</v>
       </c>
       <c r="D7" t="n">
-        <v>33.68276952807536</v>
+        <v>349.0079890039038</v>
       </c>
       <c r="E7" t="n">
-        <v>33.68276952807536</v>
+        <v>349.0079890039038</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807536</v>
+        <v>202.1180415059935</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807536</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807536</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807536</v>
+        <v>33.68276952807541</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630057</v>
+        <v>27.93839475630046</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874695</v>
+        <v>148.5233105874691</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208648</v>
+        <v>358.3569215208641</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014287</v>
+        <v>589.9861665014276</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750264</v>
+        <v>821.542402175025</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767888</v>
+        <v>1019.405768767886</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612034</v>
+        <v>1165.191378612032</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950959</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="S7" t="n">
-        <v>855.4770491322838</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="T7" t="n">
-        <v>630.580937195088</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="U7" t="n">
-        <v>577.7844277709229</v>
+        <v>1182.690698049272</v>
       </c>
       <c r="V7" t="n">
-        <v>323.099939565036</v>
+        <v>1178.270560524637</v>
       </c>
       <c r="W7" t="n">
-        <v>33.68276952807536</v>
+        <v>888.8533904876766</v>
       </c>
       <c r="X7" t="n">
-        <v>33.68276952807536</v>
+        <v>888.8533904876766</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.68276952807536</v>
+        <v>668.0608113441465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1305.072513749322</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>946.8068151425718</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>946.8068151425718</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>535.8209103529643</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1981.388421639258</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1650.325534295688</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1650.325534295688</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1650.325534295688</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>1650.325534295688</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.0949848405774</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0949848405774</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282416</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1587.182688360977</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1390.553940520838</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1390.553940520838</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1101.435603024676</v>
       </c>
       <c r="V10" t="n">
-        <v>1031.733000568835</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="W10" t="n">
-        <v>1031.733000568835</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="X10" t="n">
-        <v>803.7434496708171</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.7434496708171</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5065,22 +5065,22 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536419</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524078</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868276</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.71639066239</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625429</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727412</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583882</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5782,19 +5782,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6311,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2310.602715440587</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2091.001250463528</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.241535601839</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1257.824365564879</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X28" t="n">
-        <v>1029.834814666861</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>809.0422355233313</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>113.9333885650331</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2897.617548589219</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4361.225028359652</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4072.14980170385</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3817.465313497964</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3528.048143461006</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3300.058592562989</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3079.266013419459</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>265.0731740618515</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>97.87707477673149</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,43 +7153,43 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,10 +7201,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7314,22 +7314,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7390,16 +7390,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852254</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7599,19 +7599,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
         <v>1280.315625093766</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,19 +7736,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471051</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457082</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711115</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>46.56605103777609</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.9299346389891</v>
+        <v>41.92993463898941</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.6499349213311</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213324</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>84.77391660562006</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,10 +23703,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.003342051668</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>85.45266000108626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>30.95754073885479</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>112.4047682534899</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.3791545843333</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405032</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>112.9792378643594</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779574.0714111606</v>
+        <v>779574.0714111605</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442543</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427137</v>
+        <v>178997.5061427118</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731193</v>
+        <v>301519.8707731207</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.5244526732</v>
+        <v>41617.52445267278</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.3024001951</v>
+        <v>73739.30240019545</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307133</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806964</v>
+        <v>229588.1389806968</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184281</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029189</v>
+        <v>69851.97930029177</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248454.0912251377</v>
+        <v>-248454.091225138</v>
       </c>
       <c r="C6" t="n">
-        <v>198921.8357143316</v>
+        <v>198921.835714333</v>
       </c>
       <c r="D6" t="n">
-        <v>137746.5862271319</v>
+        <v>137746.5862271302</v>
       </c>
       <c r="E6" t="n">
-        <v>43681.16518395917</v>
+        <v>43333.78592960193</v>
       </c>
       <c r="F6" t="n">
-        <v>551166.6068085049</v>
+        <v>550819.2275541485</v>
       </c>
       <c r="G6" t="n">
-        <v>551166.6068085051</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="H6" t="n">
-        <v>551166.6068085051</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="I6" t="n">
-        <v>551166.6068085049</v>
+        <v>550819.2275541482</v>
       </c>
       <c r="J6" t="n">
-        <v>502101.6620799604</v>
+        <v>501754.2828256036</v>
       </c>
       <c r="K6" t="n">
-        <v>509549.0823558318</v>
+        <v>509201.7031014754</v>
       </c>
       <c r="L6" t="n">
-        <v>477427.3044083099</v>
+        <v>477079.9251539526</v>
       </c>
       <c r="M6" t="n">
-        <v>418559.3130795779</v>
+        <v>418211.9338252212</v>
       </c>
       <c r="N6" t="n">
-        <v>551166.6068085046</v>
+        <v>550819.2275541479</v>
       </c>
       <c r="O6" t="n">
-        <v>551166.6068085048</v>
+        <v>550819.2275541478</v>
       </c>
       <c r="P6" t="n">
-        <v>551166.6068085049</v>
+        <v>550819.2275541482</v>
       </c>
     </row>
   </sheetData>
@@ -26703,25 +26703,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955716</v>
+        <v>687.6696919955704</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537571</v>
+        <v>349.2299344537557</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826674</v>
+        <v>139.1997510826658</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219676</v>
+        <v>246.3952001219687</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874374</v>
+        <v>161.7043472874358</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874374</v>
+        <v>161.7043472874358</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874374</v>
+        <v>161.7043472874358</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462818</v>
+        <v>291.3548976462831</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>219.3504585753915</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27438,16 +27438,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>187.0428536677799</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510934</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121494</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.3067463653523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,10 +27514,10 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>135.7994153147802</v>
       </c>
       <c r="V3" t="n">
-        <v>140.6305450056507</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>46.96994131400065</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27593,16 +27593,16 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713064</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>277.606589076718</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271751</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>16.04295731725182</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.70043561850468</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>181.6940976820913</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.3083017870239</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>22.9754091554131</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908713</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>146.0239967969024</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27675,16 +27675,16 @@
         <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>20.5011662247133</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.00800420229785</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>28.22121495048893</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277713</v>
+        <v>97.95007950277716</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
@@ -27754,10 +27754,10 @@
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>51.81375085538571</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>233.9828453847318</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>247.7617071744396</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>298.5477854607183</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>6.014252814201882</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>52.78677502318879</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>170.4403837917447</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28487,7 +28487,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-2.592253109943725e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29969,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354055</v>
+        <v>2.76450127435405</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597847</v>
+        <v>28.31194867597842</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795348</v>
+        <v>106.5784353795346</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342077</v>
+        <v>234.6335900342072</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776149</v>
+        <v>351.6549289776142</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526278</v>
+        <v>436.2590348526271</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904217</v>
+        <v>485.4222343904208</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361803</v>
+        <v>493.2768736361793</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893221</v>
+        <v>465.7873640893212</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787063</v>
+        <v>397.5387388787056</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909016</v>
+        <v>298.5350369909011</v>
       </c>
       <c r="R5" t="n">
-        <v>173.655603175143</v>
+        <v>173.6556031751427</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934308</v>
+        <v>62.99607278934297</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848488</v>
+        <v>12.10160432848486</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483243</v>
+        <v>0.2211601019483239</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782928</v>
+        <v>1.479138582782925</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371933</v>
+        <v>14.2853647337193</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721923</v>
+        <v>50.92648190721913</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233643</v>
+        <v>139.746158823364</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698204</v>
+        <v>238.84844386982</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117055</v>
+        <v>321.1612085117048</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375865</v>
+        <v>374.7799821375858</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721265</v>
+        <v>384.6992930721257</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536205</v>
+        <v>351.9246960536199</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122944</v>
+        <v>282.4505948122938</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022558</v>
+        <v>188.8107426022555</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103128</v>
+        <v>91.83634113103112</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020041</v>
+        <v>27.47435043020036</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603114</v>
+        <v>5.961966480603103</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729792</v>
+        <v>0.09731174886729774</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319883</v>
+        <v>1.240060100319881</v>
       </c>
       <c r="H7" t="n">
-        <v>11.0252616192077</v>
+        <v>11.02526161920768</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871068</v>
+        <v>37.29198919871061</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261573</v>
+        <v>87.67224909261557</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098918</v>
+        <v>144.0724371098916</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966488</v>
+        <v>184.3631170966485</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619613</v>
+        <v>194.3850573619609</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698601</v>
+        <v>189.7630151698597</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433959</v>
+        <v>175.2768585433956</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968702</v>
+        <v>149.9796324968699</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913313</v>
+        <v>103.8381234913311</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983764</v>
+        <v>55.75761141983754</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648377</v>
+        <v>21.61086556648374</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457681</v>
+        <v>5.298438610457671</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563007</v>
+        <v>0.06763964183562994</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068192</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752137</v>
+        <v>53.58768550752094</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326343</v>
+        <v>131.5650779326337</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826406</v>
+        <v>200.4926198826398</v>
       </c>
       <c r="M5" t="n">
-        <v>255.076001163149</v>
+        <v>255.0760011631481</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395893</v>
+        <v>263.8638100395884</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676353</v>
+        <v>235.6891526676345</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234367</v>
+        <v>166.3057431234361</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645215</v>
+        <v>76.22934711645158</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669756</v>
+        <v>12.90853215669731</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954614</v>
+        <v>294.6569398167921</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318313</v>
+        <v>182.6068287318307</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155682</v>
+        <v>232.6459482155675</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887932</v>
+        <v>253.3575809887924</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091761</v>
+        <v>209.3284516091754</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979641</v>
+        <v>148.4761873979636</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375667</v>
+        <v>48.82896851623397</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.802945284009</v>
+        <v>121.8029452840087</v>
       </c>
       <c r="L7" t="n">
-        <v>211.953142356965</v>
+        <v>211.9531423569646</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238019</v>
+        <v>233.9689343238015</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490887</v>
+        <v>233.8951875490883</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574356</v>
+        <v>199.8619864574353</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617636</v>
+        <v>147.2581917617634</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963693</v>
+        <v>17.67608023963673</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2773257.701351629</v>
+        <v>2775018.231654414</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>162.5831330369105</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -709,22 +709,22 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>140.709404802355</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>90.06435309531078</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>11.80864931076607</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>120.2768797846272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.49274805172855</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.2299344537582</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537557</v>
+        <v>349.2299344537582</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>12.53823624078099</v>
       </c>
       <c r="H5" t="n">
-        <v>288.1874442843756</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>288.1874442843778</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537557</v>
+        <v>349.2299344537582</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2299344537557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>111.7771026772234</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>107.6431636299388</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419594</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612014</v>
+        <v>8.321493021611744</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.86845333081394</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057202</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573318</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>4.375936149388462</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>112.9999173122357</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>117.2278100992617</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>48.77079739638484</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>193.5534233013595</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>36.22494343870321</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986316</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756203</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>194.7521146501823</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.40444476188276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.6519665656066</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656066</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656066</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656066</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
@@ -4342,40 +4342,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201469</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201469</v>
+        <v>578.2426392372652</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201469</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201469</v>
+        <v>199.4030692042955</v>
       </c>
       <c r="V2" t="n">
-        <v>596.4915365985761</v>
+        <v>199.4030692042955</v>
       </c>
       <c r="W2" t="n">
-        <v>407.0717515820913</v>
+        <v>199.4030692042955</v>
       </c>
       <c r="X2" t="n">
-        <v>217.6519665656066</v>
+        <v>199.4030692042955</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.6519665656066</v>
+        <v>199.4030692042955</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.7084696131274</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="U3" t="n">
-        <v>659.1282546296121</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="V3" t="n">
-        <v>469.7084696131274</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="W3" t="n">
-        <v>469.7084696131274</v>
+        <v>710.9913636875945</v>
       </c>
       <c r="X3" t="n">
-        <v>469.7084696131274</v>
+        <v>521.5715786711097</v>
       </c>
       <c r="Y3" t="n">
-        <v>469.7084696131274</v>
+        <v>332.1517936546249</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652796</v>
+        <v>334.0548693135482</v>
       </c>
       <c r="C4" t="n">
-        <v>628.6105509030299</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4939114906941</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>330.580817908301</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>183.6908704103906</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394161</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>587.3641452287296</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652796</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652796</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652796</v>
+        <v>712.8944393465179</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652796</v>
+        <v>712.8944393465179</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652796</v>
+        <v>712.8944393465179</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652796</v>
+        <v>523.474654330033</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652796</v>
+        <v>523.474654330033</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652796</v>
+        <v>334.0548693135482</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652796</v>
+        <v>334.0548693135482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>691.4047187165265</v>
+        <v>400.3062901464529</v>
       </c>
       <c r="C5" t="n">
-        <v>338.6472091672783</v>
+        <v>47.54878059720211</v>
       </c>
       <c r="D5" t="n">
-        <v>338.6472091672783</v>
+        <v>47.54878059720211</v>
       </c>
       <c r="E5" t="n">
-        <v>338.6472091672783</v>
+        <v>47.54878059720211</v>
       </c>
       <c r="F5" t="n">
-        <v>331.7017084180748</v>
+        <v>40.60327984799864</v>
       </c>
       <c r="G5" t="n">
-        <v>319.0368233263769</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630046</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630046</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="J5" t="n">
-        <v>80.9902034087462</v>
+        <v>80.99020340874677</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620536</v>
+        <v>211.239630562055</v>
       </c>
       <c r="L5" t="n">
-        <v>409.727324245867</v>
+        <v>409.7273242458698</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973835</v>
+        <v>662.2525653973878</v>
       </c>
       <c r="N5" t="n">
-        <v>923.477737336576</v>
+        <v>923.4777373365818</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477534</v>
+        <v>1156.809998477542</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169736</v>
+        <v>1321.452684169745</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815023</v>
+        <v>1105.821309244954</v>
       </c>
       <c r="X5" t="n">
-        <v>1044.162228265775</v>
+        <v>753.0637996957037</v>
       </c>
       <c r="Y5" t="n">
-        <v>691.4047187165265</v>
+        <v>753.0637996957037</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>804.6870533177894</v>
+        <v>315.2975883578554</v>
       </c>
       <c r="C6" t="n">
-        <v>630.2340240366624</v>
+        <v>140.8445590767284</v>
       </c>
       <c r="D6" t="n">
-        <v>481.2996143754111</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="E6" t="n">
-        <v>322.0621593699556</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="F6" t="n">
-        <v>175.5276013968406</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630046</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143079</v>
+        <v>40.71784159143142</v>
       </c>
       <c r="K6" t="n">
-        <v>332.4282120100549</v>
+        <v>140.7147764379385</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545673</v>
+        <v>321.4955368824518</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879791</v>
+        <v>551.8150256158647</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668836</v>
+        <v>802.6390307947704</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459967</v>
+        <v>1009.874197887855</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983951</v>
+        <v>1156.86562341184</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815023</v>
+        <v>1396.919737815033</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308344</v>
+        <v>1388.514189308354</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308344</v>
+        <v>1388.514189308354</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308344</v>
+        <v>1388.514189308354</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308344</v>
+        <v>1388.514189308354</v>
       </c>
       <c r="V6" t="n">
-        <v>1388.514189308344</v>
+        <v>1153.362081076612</v>
       </c>
       <c r="W6" t="n">
-        <v>1388.514189308344</v>
+        <v>899.1247243484102</v>
       </c>
       <c r="X6" t="n">
-        <v>1180.662689102811</v>
+        <v>691.2732241428773</v>
       </c>
       <c r="Y6" t="n">
-        <v>972.9023903378575</v>
+        <v>483.5129253779234</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>668.0608113441465</v>
+        <v>334.4515130212428</v>
       </c>
       <c r="C7" t="n">
-        <v>499.1246284162396</v>
+        <v>294.1803480406227</v>
       </c>
       <c r="D7" t="n">
-        <v>349.0079890039038</v>
+        <v>294.1803480406227</v>
       </c>
       <c r="E7" t="n">
-        <v>349.0079890039038</v>
+        <v>294.1803480406227</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1180415059935</v>
+        <v>147.2904005427123</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807541</v>
+        <v>147.2904005427123</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807541</v>
+        <v>147.2904005427123</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807541</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630046</v>
+        <v>27.93839475630066</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874691</v>
+        <v>148.5233105874697</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208641</v>
+        <v>358.3569215208653</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014276</v>
+        <v>589.9861665014294</v>
       </c>
       <c r="N7" t="n">
-        <v>821.542402175025</v>
+        <v>821.5424021750273</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.405768767889</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1165.191378612035</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049272</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049272</v>
+        <v>1059.927283950961</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049272</v>
+        <v>1059.927283950961</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049272</v>
+        <v>1059.927283950961</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049272</v>
+        <v>770.7844660573694</v>
       </c>
       <c r="V7" t="n">
-        <v>1178.270560524637</v>
+        <v>516.0999778514825</v>
       </c>
       <c r="W7" t="n">
-        <v>888.8533904876766</v>
+        <v>516.0999778514825</v>
       </c>
       <c r="X7" t="n">
-        <v>888.8533904876766</v>
+        <v>516.0999778514825</v>
       </c>
       <c r="Y7" t="n">
-        <v>668.0608113441465</v>
+        <v>516.0999778514825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.035030689734</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C8" t="n">
-        <v>1305.072513749322</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D8" t="n">
-        <v>946.8068151425718</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E8" t="n">
-        <v>946.8068151425718</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F8" t="n">
-        <v>535.8209103529643</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>236.0323651253084</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1674.035030689734</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4883,28 +4883,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.182688360977</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1390.553940520838</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1390.553940520838</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1101.435603024676</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="V10" t="n">
-        <v>846.7511148187889</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="W10" t="n">
-        <v>846.7511148187889</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="X10" t="n">
-        <v>846.7511148187889</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>918.7469765594642</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5062,19 +5062,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536419</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524078</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868276</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.71639066239</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625429</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727412</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583882</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>98.29368706161269</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777609</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898941</v>
+        <v>41.9299346389889</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.6499349213311</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>193.6499349213343</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>110.003342051668</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779574.0714111605</v>
+        <v>779574.0714111606</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785141</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785141</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380338</v>
@@ -26325,37 +26325,37 @@
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427118</v>
+        <v>178997.5061427144</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731207</v>
+        <v>301519.8707731182</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267278</v>
+        <v>41617.52445267345</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019545</v>
+        <v>73739.30240019481</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26420,28 +26420,28 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806968</v>
+        <v>229588.1389806961</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.80811184269</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26453,13 +26453,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029177</v>
+        <v>69851.97930029198</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-248454.091225138</v>
       </c>
       <c r="C6" t="n">
-        <v>198921.835714333</v>
+        <v>198921.8357143311</v>
       </c>
       <c r="D6" t="n">
-        <v>137746.5862271302</v>
+        <v>137746.5862271327</v>
       </c>
       <c r="E6" t="n">
-        <v>43333.78592960193</v>
+        <v>43646.4272585233</v>
       </c>
       <c r="F6" t="n">
-        <v>550819.2275541485</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="G6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="H6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="I6" t="n">
-        <v>550819.2275541482</v>
+        <v>551131.8688830697</v>
       </c>
       <c r="J6" t="n">
-        <v>501754.2828256036</v>
+        <v>502066.9241545246</v>
       </c>
       <c r="K6" t="n">
-        <v>509201.7031014754</v>
+        <v>509514.3444303959</v>
       </c>
       <c r="L6" t="n">
-        <v>477079.9251539526</v>
+        <v>477392.5664828743</v>
       </c>
       <c r="M6" t="n">
-        <v>418211.9338252212</v>
+        <v>418524.5751541426</v>
       </c>
       <c r="N6" t="n">
-        <v>550819.2275541479</v>
+        <v>551131.8688830693</v>
       </c>
       <c r="O6" t="n">
-        <v>550819.2275541478</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="P6" t="n">
-        <v>550819.2275541482</v>
+        <v>551131.8688830693</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955704</v>
+        <v>687.6696919955724</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537557</v>
+        <v>349.2299344537582</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826658</v>
+        <v>139.1997510826678</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219687</v>
+        <v>246.3952001219667</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241349</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874358</v>
+        <v>161.7043472874383</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462831</v>
+        <v>291.3548976462806</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874358</v>
+        <v>161.7043472874385</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462831</v>
+        <v>291.3548976462806</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874358</v>
+        <v>161.7043472874383</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462831</v>
+        <v>291.3548976462806</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>220.15070862657</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
-        <v>187.0428536677799</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,10 +27466,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,19 +27514,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7994153147802</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310537</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8863338501535</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="4">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>46.96994131400065</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>173.2875077437677</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27596,13 +27596,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.1840682227172</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>33.50390720972234</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725182</v>
+        <v>16.04295731724932</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>22.9754091554131</v>
+        <v>311.1628534397886</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908713</v>
+        <v>103.897454190871</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969024</v>
+        <v>146.0239967969022</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>61.05352443303525</v>
       </c>
       <c r="X5" t="n">
-        <v>20.5011662247133</v>
+        <v>20.5011662247108</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.00800420229785</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35.66796288741533</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>28.22121495048893</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277716</v>
+        <v>97.95007950277711</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419579</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736375</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
@@ -27754,10 +27754,10 @@
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.3783677678139</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285477</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024056946</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.535779957332</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27830,19 +27830,19 @@
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>247.7617071744396</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>298.5477854607183</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>183.7907424631437</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.78677502318879</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>92.67373081984115</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28487,7 +28487,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.592253109943725e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76450127435405</v>
+        <v>2.764501274354058</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597842</v>
+        <v>28.3119486759785</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795346</v>
+        <v>106.5784353795349</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342072</v>
+        <v>234.6335900342079</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776142</v>
+        <v>351.6549289776153</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526271</v>
+        <v>436.2590348526284</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904208</v>
+        <v>485.4222343904223</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361793</v>
+        <v>493.2768736361808</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893212</v>
+        <v>465.7873640893226</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787056</v>
+        <v>397.5387388787067</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909011</v>
+        <v>298.535036990902</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751427</v>
+        <v>173.6556031751432</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934297</v>
+        <v>62.99607278934316</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848486</v>
+        <v>12.10160432848489</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483239</v>
+        <v>0.2211601019483246</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782925</v>
+        <v>1.479138582782929</v>
       </c>
       <c r="H6" t="n">
-        <v>14.2853647337193</v>
+        <v>14.28536473371935</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721913</v>
+        <v>50.92648190721928</v>
       </c>
       <c r="J6" t="n">
-        <v>139.746158823364</v>
+        <v>139.7461588233644</v>
       </c>
       <c r="K6" t="n">
-        <v>238.84844386982</v>
+        <v>238.8484438698207</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117048</v>
+        <v>321.1612085117058</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375858</v>
+        <v>374.7799821375869</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721257</v>
+        <v>384.6992930721269</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536199</v>
+        <v>351.9246960536209</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122938</v>
+        <v>282.4505948122946</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022555</v>
+        <v>188.8107426022561</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103112</v>
+        <v>91.83634113103139</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020036</v>
+        <v>27.47435043020045</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603103</v>
+        <v>5.961966480603121</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729774</v>
+        <v>0.09731174886729803</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319881</v>
+        <v>1.240060100319885</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.02526161920771</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871061</v>
+        <v>37.29198919871072</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261557</v>
+        <v>87.67224909261583</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098916</v>
+        <v>144.072437109892</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966485</v>
+        <v>184.363117096649</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619609</v>
+        <v>194.3850573619615</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698597</v>
+        <v>189.7630151698603</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433956</v>
+        <v>175.2768585433961</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968699</v>
+        <v>149.9796324968704</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913311</v>
+        <v>103.8381234913314</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983754</v>
+        <v>55.7576114198377</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648374</v>
+        <v>21.6108655664838</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457671</v>
+        <v>5.298438610457687</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562994</v>
+        <v>0.06763964183563015</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>110.4529028080735</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752094</v>
+        <v>53.58768550752166</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326337</v>
+        <v>131.5650779326347</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826398</v>
+        <v>200.4926198826411</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631481</v>
+        <v>255.0760011631496</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395884</v>
+        <v>263.8638100395899</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676345</v>
+        <v>235.6891526676359</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234361</v>
+        <v>166.3057431234372</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645158</v>
+        <v>76.22934711645249</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669731</v>
+        <v>12.90853215669773</v>
       </c>
       <c r="K6" t="n">
-        <v>294.6569398167921</v>
+        <v>101.0070048954617</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318307</v>
+        <v>182.6068287318316</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155675</v>
+        <v>232.6459482155686</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887924</v>
+        <v>253.3575809887936</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091754</v>
+        <v>209.3284516091765</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979636</v>
+        <v>148.4761873979644</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623397</v>
+        <v>242.4789034375688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840087</v>
+        <v>121.8029452840092</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569646</v>
+        <v>211.9531423569652</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238015</v>
+        <v>233.9689343238021</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490883</v>
+        <v>233.8951875490889</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574353</v>
+        <v>199.8619864574358</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617634</v>
+        <v>147.2581917617638</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963673</v>
+        <v>17.67608023963705</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
